--- a/download/GetYourNextRaise_MarketValueEstimationWorksheet.xlsx
+++ b/download/GetYourNextRaise_MarketValueEstimationWorksheet.xlsx
@@ -639,7 +639,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>Copyright © 2016 Josh Doody</a:t>
+            <a:t>Copyright © 2018 Josh Doody</a:t>
           </a:r>
         </a:p>
         <a:p>
